--- a/uploads/productos.xlsx
+++ b/uploads/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcandia.SBAD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A96F044E-4E4A-4572-AD53-07AC89C03C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E6407E-A578-461D-96AA-808781AFA1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="792" yWindow="2568" windowWidth="17280" windowHeight="8880" xr2:uid="{2A242F54-6CB2-46A2-878E-6A9687180E23}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>nombre</t>
   </si>
@@ -54,6 +54,72 @@
   </si>
   <si>
     <t>Jueguetes para perrors</t>
+  </si>
+  <si>
+    <t>Abamectin </t>
+  </si>
+  <si>
+    <t>Acetato de melengestrol </t>
+  </si>
+  <si>
+    <t>Acetato de trembolona</t>
+  </si>
+  <si>
+    <t>Albendazol </t>
+  </si>
+  <si>
+    <t>Amoxicillina </t>
+  </si>
+  <si>
+    <t>Ampicilina </t>
+  </si>
+  <si>
+    <t>Avilamicina </t>
+  </si>
+  <si>
+    <t>Azaperona</t>
+  </si>
+  <si>
+    <t>Carazolol </t>
+  </si>
+  <si>
+    <t>Carbadox</t>
+  </si>
+  <si>
+    <t>Ceptiofur </t>
+  </si>
+  <si>
+    <t>Ciflutrín </t>
+  </si>
+  <si>
+    <t>Cihalotrin </t>
+  </si>
+  <si>
+    <t>Cipermetrina y alpfa-cypermetrina</t>
+  </si>
+  <si>
+    <t>Clenbuterol </t>
+  </si>
+  <si>
+    <t>Clopidol </t>
+  </si>
+  <si>
+    <t>Cloranfenicol</t>
+  </si>
+  <si>
+    <t>Clorhidrato de zilpaterol </t>
+  </si>
+  <si>
+    <t>Clorpromazina </t>
+  </si>
+  <si>
+    <t>Clortetraciclina/Oxitetraciclina/Tetraciclina </t>
+  </si>
+  <si>
+    <t>Closantel </t>
+  </si>
+  <si>
+    <t>Colistin </t>
   </si>
 </sst>
 </file>
@@ -425,15 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116492A8-2DF6-4D04-B6BC-A1EDD065D585}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -480,7 +546,250 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>8000</v>
+      </c>
+      <c r="C5">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>15000</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>25000</v>
+      </c>
+      <c r="C8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>18000</v>
+      </c>
+      <c r="C9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>15000</v>
+      </c>
+      <c r="C10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>50000</v>
+      </c>
+      <c r="C11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>4000</v>
+      </c>
+      <c r="C12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>78000</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>25000</v>
+      </c>
+      <c r="C14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>48000</v>
+      </c>
+      <c r="C15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>15000</v>
+      </c>
+      <c r="C16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>65000</v>
+      </c>
+      <c r="C17">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>78000</v>
+      </c>
+      <c r="C18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>15000</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>2500</v>
+      </c>
+      <c r="C20">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>48000</v>
+      </c>
+      <c r="C21">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>57000</v>
+      </c>
+      <c r="C22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>58000</v>
+      </c>
+      <c r="C23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>65000</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>28000</v>
+      </c>
+      <c r="C25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>70000</v>
+      </c>
+      <c r="C26">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>